--- a/기능정의서/animal_face_기능정의서_v001_20200730.xlsx
+++ b/기능정의서/animal_face_기능정의서_v001_20200730.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\animal-face\기능정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{677F30C1-0D1D-49C8-84D9-9649E05440EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7D868D-6F9F-4711-9A82-21D3DF9FD24F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="homePage1" sheetId="3" r:id="rId1"/>
+    <sheet name="관리자" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -422,6 +423,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -429,15 +439,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -797,13 +798,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
@@ -840,7 +841,7 @@
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7"/>
@@ -849,10 +850,10 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="9"/>
@@ -892,4 +893,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9929475D-7380-4EF6-BF75-8CEC4A9FD67C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>